--- a/FairyBook/src/main/webapp/WEB-INF/sceneData.xlsx
+++ b/FairyBook/src/main/webapp/WEB-INF/sceneData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>SCENENUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +55,10 @@
   </si>
   <si>
     <t>STORYTEXT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +413,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I2" sqref="I2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,6 +482,15 @@
       <c r="G2">
         <v>10</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -502,6 +514,15 @@
       <c r="G3">
         <v>11</v>
       </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -525,6 +546,15 @@
       <c r="G4">
         <v>7</v>
       </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -548,6 +578,15 @@
       <c r="G5">
         <v>8</v>
       </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -570,6 +609,15 @@
       </c>
       <c r="G6">
         <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -593,6 +641,15 @@
       </c>
       <c r="G7">
         <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FairyBook/src/main/webapp/WEB-INF/sceneData.xlsx
+++ b/FairyBook/src/main/webapp/WEB-INF/sceneData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2700" windowWidth="11955" windowHeight="7290"/>
@@ -11,8 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1:H20"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -66,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +105,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -199,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,6 +239,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,14 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -427,7 +434,7 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -491,7 +498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -523,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -555,7 +562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -563,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -587,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -619,7 +626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -650,20 +657,36 @@
       <c r="J7" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,12 +694,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
